--- a/Planeamiento-Formación.xlsx
+++ b/Planeamiento-Formación.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="18">
   <si>
     <t xml:space="preserve">Voy a tener 3 etapas: Sólo Demo, Demo+real, Real. </t>
   </si>
@@ -68,6 +68,9 @@
   <si>
     <t xml:space="preserve">Este día quise abrir de onda SPY, QQQ, TSLA, y nada. Me decía que había retrasos. Finalmente insistí a abrir MSFT y sin darme cuenta ya abrí y me tomó 3 órdenes. </t>
   </si>
+  <si>
+    <t xml:space="preserve">En teoría hoy tengo que enviar mi fondo a TS. 2100 USD. Y también practicar en demo el Short Call y Short Put, luego del mediodía. </t>
+  </si>
 </sst>
 </file>
 
@@ -115,11 +118,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
       <c r="B8" s="1">
         <v>44018</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -487,7 +490,7 @@
       <c r="E8" s="2">
         <v>26</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>1/120</f>
         <v>8.3333333333333332E-3</v>
       </c>
@@ -502,12 +505,16 @@
       <c r="B9" s="1">
         <v>44019</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2">
         <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <f>2/120</f>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,13 +524,17 @@
       <c r="B10" s="1">
         <v>44020</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2">
         <v>28</v>
       </c>
+      <c r="F10" s="4">
+        <f>3/120</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -532,12 +543,16 @@
       <c r="B11" s="1">
         <v>44021</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="2">
         <v>29</v>
+      </c>
+      <c r="F11" s="4">
+        <f>4/120</f>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -547,12 +562,16 @@
       <c r="B12" s="1">
         <v>44022</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="2">
         <v>30</v>
+      </c>
+      <c r="F12" s="4">
+        <f>5/120</f>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,7 +581,7 @@
       <c r="B13" s="1">
         <v>44025</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -570,6 +589,10 @@
       </c>
       <c r="E13" s="2">
         <v>31</v>
+      </c>
+      <c r="F13" s="4">
+        <f>6/120</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -579,12 +602,16 @@
       <c r="B14" s="1">
         <v>44026</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2">
         <v>32</v>
+      </c>
+      <c r="F14" s="4">
+        <f>7/120</f>
+        <v>5.8333333333333334E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,13 +621,17 @@
       <c r="B15" s="1">
         <v>44027</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="2">
         <v>33</v>
       </c>
+      <c r="F15" s="4">
+        <f>8/120</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -609,37 +640,48 @@
       <c r="B16" s="1">
         <v>44028</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <f>9/120</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>44029</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <f>10/120</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>44032</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -649,14 +691,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
       <c r="B19" s="1">
         <v>44033</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
@@ -664,14 +706,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>44034</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
@@ -679,14 +721,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
       <c r="B21" s="1">
         <v>44035</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
         <v>4</v>
       </c>
@@ -694,14 +736,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>15</v>
       </c>
       <c r="B22" s="1">
         <v>44036</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
@@ -709,14 +751,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>16</v>
       </c>
       <c r="B23" s="1">
         <v>44039</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -726,14 +768,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>44040</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
         <v>4</v>
       </c>
@@ -741,14 +783,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>44041</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
@@ -756,14 +798,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
       <c r="B26" s="1">
         <v>44042</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
         <v>4</v>
       </c>
@@ -771,14 +813,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20</v>
       </c>
       <c r="B27" s="1">
         <v>44043</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
@@ -786,14 +828,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>44046</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -803,14 +845,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>44047</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
         <v>4</v>
       </c>
@@ -818,14 +860,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>44048</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
@@ -833,14 +875,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>44049</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
@@ -848,14 +890,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>25</v>
       </c>
       <c r="B32" s="1">
         <v>44050</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
@@ -870,7 +912,7 @@
       <c r="B33" s="1">
         <v>44053</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -887,7 +929,7 @@
       <c r="B34" s="1">
         <v>44054</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
@@ -902,7 +944,7 @@
       <c r="B35" s="1">
         <v>44055</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
         <v>4</v>
       </c>
@@ -917,7 +959,7 @@
       <c r="B36" s="1">
         <v>44056</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
@@ -932,7 +974,7 @@
       <c r="B37" s="1">
         <v>44057</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
         <v>4</v>
       </c>
@@ -947,7 +989,7 @@
       <c r="B38" s="1">
         <v>44060</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -964,7 +1006,7 @@
       <c r="B39" s="1">
         <v>44061</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
@@ -979,7 +1021,7 @@
       <c r="B40" s="1">
         <v>44062</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
@@ -994,7 +1036,7 @@
       <c r="B41" s="1">
         <v>44063</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1051,7 @@
       <c r="B42" s="3">
         <v>44064</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1069,7 @@
       <c r="B43" s="1">
         <v>44067</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="5">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1047,7 +1089,7 @@
       <c r="B44" s="1">
         <v>44068</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1107,7 @@
       <c r="B45" s="1">
         <v>44069</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1125,7 @@
       <c r="B46" s="1">
         <v>44070</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
@@ -1101,7 +1143,7 @@
       <c r="B47" s="1">
         <v>44071</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="2" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1161,7 @@
       <c r="B48" s="1">
         <v>44074</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="5">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1139,7 +1181,7 @@
       <c r="B49" s="1">
         <v>44075</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="2" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1194,7 @@
       <c r="B50" s="1">
         <v>44076</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="2" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1207,7 @@
       <c r="B51" s="1">
         <v>44077</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="2" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1220,7 @@
       <c r="B52" s="1">
         <v>44078</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="2" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1233,7 @@
       <c r="B53" s="1">
         <v>44081</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="5">
         <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -1206,7 +1248,7 @@
       <c r="B54" s="1">
         <v>44082</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1261,7 @@
       <c r="B55" s="1">
         <v>44083</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="2" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1274,7 @@
       <c r="B56" s="1">
         <v>44084</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1245,7 +1287,7 @@
       <c r="B57" s="1">
         <v>44085</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="2" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1300,7 @@
       <c r="B58" s="1">
         <v>44088</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="5">
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -1273,7 +1315,7 @@
       <c r="B59" s="1">
         <v>44089</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1328,7 @@
       <c r="B60" s="1">
         <v>44090</v>
       </c>
-      <c r="C60" s="4"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1341,7 @@
       <c r="B61" s="1">
         <v>44091</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="2" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1354,7 @@
       <c r="B62" s="1">
         <v>44092</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="2" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1367,7 @@
       <c r="B63" s="1">
         <v>44095</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="5">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -1340,7 +1382,7 @@
       <c r="B64" s="1">
         <v>44096</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1395,7 @@
       <c r="B65" s="1">
         <v>44097</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1366,7 +1408,7 @@
       <c r="B66" s="1">
         <v>44098</v>
       </c>
-      <c r="C66" s="4"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="2" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1421,7 @@
       <c r="B67" s="3">
         <v>44099</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1434,7 @@
       <c r="B68" s="1">
         <v>44102</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="5">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -1410,7 +1452,7 @@
       <c r="B69" s="1">
         <v>44103</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1465,7 @@
       <c r="B70" s="1">
         <v>44104</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
@@ -1436,7 +1478,7 @@
       <c r="B71" s="1">
         <v>44105</v>
       </c>
-      <c r="C71" s="4"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
@@ -1449,7 +1491,7 @@
       <c r="B72" s="1">
         <v>44106</v>
       </c>
-      <c r="C72" s="4"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1504,7 @@
       <c r="B73" s="1">
         <v>44109</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="5">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -1477,7 +1519,7 @@
       <c r="B74" s="1">
         <v>44110</v>
       </c>
-      <c r="C74" s="4"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="2" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1532,7 @@
       <c r="B75" s="1">
         <v>44111</v>
       </c>
-      <c r="C75" s="4"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
@@ -1503,7 +1545,7 @@
       <c r="B76" s="1">
         <v>44112</v>
       </c>
-      <c r="C76" s="4"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +1558,7 @@
       <c r="B77" s="1">
         <v>44113</v>
       </c>
-      <c r="C77" s="4"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
@@ -1529,7 +1571,7 @@
       <c r="B78" s="1">
         <v>44116</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="5">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -1544,7 +1586,7 @@
       <c r="B79" s="1">
         <v>44117</v>
       </c>
-      <c r="C79" s="4"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="2" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1599,7 @@
       <c r="B80" s="1">
         <v>44118</v>
       </c>
-      <c r="C80" s="4"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
@@ -1570,7 +1612,7 @@
       <c r="B81" s="1">
         <v>44119</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
@@ -1583,7 +1625,7 @@
       <c r="B82" s="1">
         <v>44120</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="2" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +1638,7 @@
       <c r="B83" s="1">
         <v>44123</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="5">
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -1611,7 +1653,7 @@
       <c r="B84" s="1">
         <v>44124</v>
       </c>
-      <c r="C84" s="4"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
@@ -1624,7 +1666,7 @@
       <c r="B85" s="1">
         <v>44125</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="2" t="s">
         <v>9</v>
       </c>
@@ -1637,7 +1679,7 @@
       <c r="B86" s="1">
         <v>44126</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
@@ -1650,7 +1692,7 @@
       <c r="B87" s="1">
         <v>44127</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="2" t="s">
         <v>9</v>
       </c>
@@ -1663,7 +1705,7 @@
       <c r="B88" s="1">
         <v>44130</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="5">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -1678,7 +1720,7 @@
       <c r="B89" s="1">
         <v>44131</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="2" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1733,7 @@
       <c r="B90" s="1">
         <v>44132</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="2" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1746,7 @@
       <c r="B91" s="1">
         <v>44133</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
@@ -1717,7 +1759,7 @@
       <c r="B92" s="1">
         <v>44134</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
@@ -1730,7 +1772,7 @@
       <c r="B93" s="1">
         <v>44137</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="5">
         <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -1745,7 +1787,7 @@
       <c r="B94" s="1">
         <v>44138</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="2" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1800,7 @@
       <c r="B95" s="1">
         <v>44139</v>
       </c>
-      <c r="C95" s="4"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="2" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +1813,7 @@
       <c r="B96" s="1">
         <v>44140</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="2" t="s">
         <v>9</v>
       </c>
@@ -1784,7 +1826,7 @@
       <c r="B97" s="1">
         <v>44141</v>
       </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="2" t="s">
         <v>9</v>
       </c>
@@ -1797,7 +1839,7 @@
       <c r="B98" s="1">
         <v>44144</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="5">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -1812,7 +1854,7 @@
       <c r="B99" s="1">
         <v>44145</v>
       </c>
-      <c r="C99" s="4"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="2" t="s">
         <v>9</v>
       </c>
@@ -1825,7 +1867,7 @@
       <c r="B100" s="1">
         <v>44146</v>
       </c>
-      <c r="C100" s="4"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="2" t="s">
         <v>9</v>
       </c>
@@ -1838,7 +1880,7 @@
       <c r="B101" s="1">
         <v>44147</v>
       </c>
-      <c r="C101" s="4"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1893,7 @@
       <c r="B102" s="1">
         <v>44148</v>
       </c>
-      <c r="C102" s="4"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="2" t="s">
         <v>9</v>
       </c>
@@ -1864,7 +1906,7 @@
       <c r="B103" s="1">
         <v>44151</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="5">
         <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -1879,7 +1921,7 @@
       <c r="B104" s="1">
         <v>44152</v>
       </c>
-      <c r="C104" s="4"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="2" t="s">
         <v>9</v>
       </c>
@@ -1892,7 +1934,7 @@
       <c r="B105" s="1">
         <v>44153</v>
       </c>
-      <c r="C105" s="4"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="2" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +1947,7 @@
       <c r="B106" s="1">
         <v>44154</v>
       </c>
-      <c r="C106" s="4"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="2" t="s">
         <v>9</v>
       </c>
@@ -1918,7 +1960,7 @@
       <c r="B107" s="1">
         <v>44155</v>
       </c>
-      <c r="C107" s="4"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +1973,7 @@
       <c r="B108" s="1">
         <v>44158</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="5">
         <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -1946,7 +1988,7 @@
       <c r="B109" s="1">
         <v>44159</v>
       </c>
-      <c r="C109" s="4"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
@@ -1959,7 +2001,7 @@
       <c r="B110" s="1">
         <v>44160</v>
       </c>
-      <c r="C110" s="4"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="2" t="s">
         <v>9</v>
       </c>
@@ -1972,7 +2014,7 @@
       <c r="B111" s="1">
         <v>44161</v>
       </c>
-      <c r="C111" s="4"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="2" t="s">
         <v>9</v>
       </c>
@@ -1985,7 +2027,7 @@
       <c r="B112" s="1">
         <v>44162</v>
       </c>
-      <c r="C112" s="4"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="2" t="s">
         <v>9</v>
       </c>
@@ -1998,7 +2040,7 @@
       <c r="B113" s="1">
         <v>44165</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="5">
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -2013,7 +2055,7 @@
       <c r="B114" s="1">
         <v>44166</v>
       </c>
-      <c r="C114" s="4"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="2" t="s">
         <v>9</v>
       </c>
@@ -2026,7 +2068,7 @@
       <c r="B115" s="1">
         <v>44167</v>
       </c>
-      <c r="C115" s="4"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="2" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2081,7 @@
       <c r="B116" s="1">
         <v>44168</v>
       </c>
-      <c r="C116" s="4"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="2" t="s">
         <v>9</v>
       </c>
@@ -2052,7 +2094,7 @@
       <c r="B117" s="1">
         <v>44169</v>
       </c>
-      <c r="C117" s="4"/>
+      <c r="C117" s="5"/>
       <c r="D117" s="2" t="s">
         <v>9</v>
       </c>
@@ -2065,7 +2107,7 @@
       <c r="B118" s="1">
         <v>44172</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="5">
         <v>23</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -2080,7 +2122,7 @@
       <c r="B119" s="1">
         <v>44173</v>
       </c>
-      <c r="C119" s="4"/>
+      <c r="C119" s="5"/>
       <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
@@ -2093,7 +2135,7 @@
       <c r="B120" s="1">
         <v>44174</v>
       </c>
-      <c r="C120" s="4"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="2" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2148,7 @@
       <c r="B121" s="1">
         <v>44175</v>
       </c>
-      <c r="C121" s="4"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="2" t="s">
         <v>9</v>
       </c>
@@ -2119,7 +2161,7 @@
       <c r="B122" s="1">
         <v>44176</v>
       </c>
-      <c r="C122" s="4"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="2" t="s">
         <v>9</v>
       </c>
@@ -2132,7 +2174,7 @@
       <c r="B123" s="1">
         <v>44179</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="5">
         <v>24</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -2147,7 +2189,7 @@
       <c r="B124" s="1">
         <v>44180</v>
       </c>
-      <c r="C124" s="4"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="2" t="s">
         <v>9</v>
       </c>
@@ -2160,7 +2202,7 @@
       <c r="B125" s="1">
         <v>44181</v>
       </c>
-      <c r="C125" s="4"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="2" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2215,7 @@
       <c r="B126" s="1">
         <v>44182</v>
       </c>
-      <c r="C126" s="4"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="2" t="s">
         <v>9</v>
       </c>
@@ -2186,7 +2228,7 @@
       <c r="B127" s="1">
         <v>44183</v>
       </c>
-      <c r="C127" s="4"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="2" t="s">
         <v>9</v>
       </c>
@@ -2198,6 +2240,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C118:C122"/>
     <mergeCell ref="C63:C67"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -2210,18 +2264,6 @@
     <mergeCell ref="C48:C52"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C118:C122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
